--- a/IMPORTANT/PP DELHI.xlsx
+++ b/IMPORTANT/PP DELHI.xlsx
@@ -1165,7 +1165,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>44585</v>
+        <v>44588</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1209,7 +1209,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44585</v>
+        <v>44588</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44585</v>
+        <v>44588</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1241,7 +1241,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44585</v>
+        <v>44588</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1257,7 +1257,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44588</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44588</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1289,7 +1289,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44588</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44588</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44588</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1337,7 +1337,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44588</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1353,7 +1353,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44588</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44588</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1385,7 +1385,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44588</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1401,7 +1401,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44588</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44588</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1433,7 +1433,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44585</v>
+        <v>44588</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1449,7 +1449,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44588</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44588</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1481,7 +1481,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44588</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1497,7 +1497,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44588</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44588</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1529,7 +1529,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44588</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1545,7 +1545,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44588</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44588</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1577,7 +1577,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44588</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1593,7 +1593,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44588</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44588</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1625,7 +1625,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44588</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44585</v>
+        <v>44588</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/PP DELHI.xlsx
+++ b/IMPORTANT/PP DELHI.xlsx
@@ -1076,7 +1076,7 @@
   </sheetPr>
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
@@ -1165,7 +1165,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>44588</v>
+        <v>44593</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>109</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1209,7 +1209,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44588</v>
+        <v>44593</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44588</v>
+        <v>44593</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1241,7 +1241,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44588</v>
+        <v>44593</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1257,7 +1257,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44588</v>
+        <v>44593</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44588</v>
+        <v>44593</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1289,7 +1289,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44588</v>
+        <v>44593</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44588</v>
+        <v>44593</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44588</v>
+        <v>44593</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1337,7 +1337,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44588</v>
+        <v>44593</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1353,7 +1353,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44588</v>
+        <v>44593</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44588</v>
+        <v>44593</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1385,7 +1385,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44588</v>
+        <v>44593</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1401,7 +1401,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44588</v>
+        <v>44593</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44588</v>
+        <v>44593</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1433,7 +1433,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44588</v>
+        <v>44593</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1449,7 +1449,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44588</v>
+        <v>44593</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44588</v>
+        <v>44593</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1481,7 +1481,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44588</v>
+        <v>44593</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1497,7 +1497,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44588</v>
+        <v>44593</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44588</v>
+        <v>44593</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1529,7 +1529,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44588</v>
+        <v>44593</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1545,7 +1545,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44588</v>
+        <v>44593</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44588</v>
+        <v>44593</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1577,7 +1577,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44588</v>
+        <v>44593</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1593,7 +1593,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44588</v>
+        <v>44593</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44588</v>
+        <v>44593</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1625,7 +1625,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44588</v>
+        <v>44593</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44588</v>
+        <v>44593</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/PP DELHI.xlsx
+++ b/IMPORTANT/PP DELHI.xlsx
@@ -1077,7 +1077,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1165,7 +1165,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>44593</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>114</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1209,7 +1209,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44593</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44593</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1241,7 +1241,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44593</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1257,7 +1257,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44593</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44593</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1289,7 +1289,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44593</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44593</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44593</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1337,7 +1337,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44593</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1353,7 +1353,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44593</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44593</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1385,7 +1385,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44593</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1401,7 +1401,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44593</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44593</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1433,7 +1433,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44593</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1449,7 +1449,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44593</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44593</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1481,7 +1481,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44593</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1497,7 +1497,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44593</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44593</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1529,7 +1529,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44593</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1545,7 +1545,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44593</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44593</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1577,7 +1577,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44593</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1593,7 +1593,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44593</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44593</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1625,7 +1625,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44593</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44593</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/PP DELHI.xlsx
+++ b/IMPORTANT/PP DELHI.xlsx
@@ -1077,7 +1077,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1161,11 +1161,11 @@
       </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>23886</v>
+        <v>-1114</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1185,11 +1185,11 @@
       </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>68430</v>
+        <v>43430</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>121</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1205,11 +1205,11 @@
       </c>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>68430</v>
+        <v>43430</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1217,15 +1217,19 @@
       <c r="B8" s="16"/>
       <c r="C8" s="19"/>
       <c r="D8" s="18"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="16"/>
+      <c r="F8" s="15">
+        <v>44602</v>
+      </c>
+      <c r="G8" s="16">
+        <v>25000</v>
+      </c>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>68430</v>
+        <v>43430</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1237,11 +1241,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>68430</v>
+        <v>43430</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1253,11 +1257,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>68430</v>
+        <v>43430</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1269,11 +1273,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>68430</v>
+        <v>43430</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1285,11 +1289,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>68430</v>
+        <v>43430</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1301,11 +1305,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>68430</v>
+        <v>43430</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1317,11 +1321,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>68430</v>
+        <v>43430</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1333,11 +1337,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>68430</v>
+        <v>43430</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1349,11 +1353,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>68430</v>
+        <v>43430</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1365,11 +1369,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>68430</v>
+        <v>43430</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1381,11 +1385,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>68430</v>
+        <v>43430</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1397,11 +1401,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>68430</v>
+        <v>43430</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1413,11 +1417,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>68430</v>
+        <v>43430</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1429,11 +1433,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>68430</v>
+        <v>43430</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1445,11 +1449,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>68430</v>
+        <v>43430</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1461,11 +1465,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>68430</v>
+        <v>43430</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1477,11 +1481,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>68430</v>
+        <v>43430</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1493,11 +1497,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>68430</v>
+        <v>43430</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1509,11 +1513,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>68430</v>
+        <v>43430</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1525,11 +1529,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>68430</v>
+        <v>43430</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1541,11 +1545,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>68430</v>
+        <v>43430</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1557,11 +1561,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>68430</v>
+        <v>43430</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1573,11 +1577,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>68430</v>
+        <v>43430</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1589,11 +1593,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>68430</v>
+        <v>43430</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1605,11 +1609,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>68430</v>
+        <v>43430</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1621,11 +1625,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>68430</v>
+        <v>43430</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1638,11 +1642,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>68430</v>
+        <v>43430</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1671,7 +1675,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>40131</v>
+        <v>65131</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1694,7 +1698,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>68430</v>
+        <v>43430</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/PP DELHI.xlsx
+++ b/IMPORTANT/PP DELHI.xlsx
@@ -1077,7 +1077,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1161,11 +1161,11 @@
       </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>-1114</v>
+        <v>-16114</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>44609</v>
+        <v>44610</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1185,11 +1185,11 @@
       </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>43430</v>
+        <v>28430</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1205,11 +1205,11 @@
       </c>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>43430</v>
+        <v>28430</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44609</v>
+        <v>44610</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1225,11 +1225,11 @@
       </c>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>43430</v>
+        <v>28430</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44609</v>
+        <v>44610</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1237,15 +1237,19 @@
       <c r="B9" s="13"/>
       <c r="C9" s="14"/>
       <c r="D9" s="18"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="16"/>
+      <c r="F9" s="15">
+        <v>44610</v>
+      </c>
+      <c r="G9" s="16">
+        <v>15000</v>
+      </c>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>43430</v>
+        <v>28430</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44609</v>
+        <v>44610</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1257,11 +1261,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>43430</v>
+        <v>28430</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44610</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1273,11 +1277,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>43430</v>
+        <v>28430</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44610</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1289,11 +1293,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>43430</v>
+        <v>28430</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44610</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1305,11 +1309,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>43430</v>
+        <v>28430</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44610</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1321,11 +1325,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>43430</v>
+        <v>28430</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44610</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1337,11 +1341,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>43430</v>
+        <v>28430</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44610</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1353,11 +1357,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>43430</v>
+        <v>28430</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44610</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1369,11 +1373,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>43430</v>
+        <v>28430</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44610</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1385,11 +1389,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>43430</v>
+        <v>28430</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44610</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1401,11 +1405,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>43430</v>
+        <v>28430</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44610</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1417,11 +1421,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>43430</v>
+        <v>28430</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44610</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1433,11 +1437,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>43430</v>
+        <v>28430</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44609</v>
+        <v>44610</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1449,11 +1453,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>43430</v>
+        <v>28430</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44610</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1465,11 +1469,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>43430</v>
+        <v>28430</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44610</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1481,11 +1485,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>43430</v>
+        <v>28430</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44610</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1497,11 +1501,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>43430</v>
+        <v>28430</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44610</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1513,11 +1517,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>43430</v>
+        <v>28430</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44610</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1529,11 +1533,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>43430</v>
+        <v>28430</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44610</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1545,11 +1549,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>43430</v>
+        <v>28430</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44610</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1561,11 +1565,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>43430</v>
+        <v>28430</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44610</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1577,11 +1581,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>43430</v>
+        <v>28430</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44610</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1593,11 +1597,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>43430</v>
+        <v>28430</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44610</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1609,11 +1613,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>43430</v>
+        <v>28430</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44610</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1625,11 +1629,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>43430</v>
+        <v>28430</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44610</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1642,11 +1646,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>43430</v>
+        <v>28430</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44609</v>
+        <v>44610</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1675,7 +1679,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>65131</v>
+        <v>80131</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1698,7 +1702,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>43430</v>
+        <v>28430</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/PP DELHI.xlsx
+++ b/IMPORTANT/PP DELHI.xlsx
@@ -1165,7 +1165,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>44610</v>
+        <v>44618</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>131</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1209,7 +1209,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44610</v>
+        <v>44618</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1229,7 +1229,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44610</v>
+        <v>44618</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1249,7 +1249,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44610</v>
+        <v>44618</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1265,7 +1265,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44610</v>
+        <v>44618</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1281,7 +1281,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44610</v>
+        <v>44618</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1297,7 +1297,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44610</v>
+        <v>44618</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1313,7 +1313,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44610</v>
+        <v>44618</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1329,7 +1329,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44610</v>
+        <v>44618</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1345,7 +1345,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44610</v>
+        <v>44618</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1361,7 +1361,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44610</v>
+        <v>44618</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1377,7 +1377,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44610</v>
+        <v>44618</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1393,7 +1393,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44610</v>
+        <v>44618</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1409,7 +1409,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44610</v>
+        <v>44618</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1425,7 +1425,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44610</v>
+        <v>44618</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1441,7 +1441,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44610</v>
+        <v>44618</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1457,7 +1457,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44610</v>
+        <v>44618</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1473,7 +1473,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44610</v>
+        <v>44618</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1489,7 +1489,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44610</v>
+        <v>44618</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1505,7 +1505,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44610</v>
+        <v>44618</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44610</v>
+        <v>44618</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1537,7 +1537,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44610</v>
+        <v>44618</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1553,7 +1553,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44610</v>
+        <v>44618</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1569,7 +1569,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44610</v>
+        <v>44618</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1585,7 +1585,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44610</v>
+        <v>44618</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1601,7 +1601,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44610</v>
+        <v>44618</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1617,7 +1617,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44610</v>
+        <v>44618</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1633,7 +1633,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44610</v>
+        <v>44618</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1650,7 +1650,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44610</v>
+        <v>44618</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/PP DELHI.xlsx
+++ b/IMPORTANT/PP DELHI.xlsx
@@ -1077,7 +1077,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1165,7 +1165,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>44618</v>
+        <v>44628</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>139</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1209,7 +1209,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44618</v>
+        <v>44628</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1229,7 +1229,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44618</v>
+        <v>44628</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1249,7 +1249,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44618</v>
+        <v>44628</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1265,7 +1265,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44618</v>
+        <v>44628</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1281,7 +1281,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44618</v>
+        <v>44628</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1297,7 +1297,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44618</v>
+        <v>44628</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1313,7 +1313,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44618</v>
+        <v>44628</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1329,7 +1329,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44618</v>
+        <v>44628</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1345,7 +1345,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44618</v>
+        <v>44628</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1361,7 +1361,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44618</v>
+        <v>44628</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1377,7 +1377,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44618</v>
+        <v>44628</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1393,7 +1393,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44618</v>
+        <v>44628</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1409,7 +1409,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44618</v>
+        <v>44628</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1425,7 +1425,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44618</v>
+        <v>44628</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1441,7 +1441,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44618</v>
+        <v>44628</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1457,7 +1457,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44618</v>
+        <v>44628</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1473,7 +1473,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44618</v>
+        <v>44628</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1489,7 +1489,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44618</v>
+        <v>44628</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1505,7 +1505,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44618</v>
+        <v>44628</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44618</v>
+        <v>44628</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1537,7 +1537,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44618</v>
+        <v>44628</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1553,7 +1553,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44618</v>
+        <v>44628</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1569,7 +1569,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44618</v>
+        <v>44628</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1585,7 +1585,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44618</v>
+        <v>44628</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1601,7 +1601,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44618</v>
+        <v>44628</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1617,7 +1617,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44618</v>
+        <v>44628</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1633,7 +1633,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44618</v>
+        <v>44628</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1650,7 +1650,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44618</v>
+        <v>44628</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/PP DELHI.xlsx
+++ b/IMPORTANT/PP DELHI.xlsx
@@ -1165,7 +1165,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>44628</v>
+        <v>44631</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1209,7 +1209,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44628</v>
+        <v>44631</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1229,7 +1229,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44628</v>
+        <v>44631</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1249,7 +1249,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44628</v>
+        <v>44631</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1265,7 +1265,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44628</v>
+        <v>44631</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1281,7 +1281,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44628</v>
+        <v>44631</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1297,7 +1297,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44628</v>
+        <v>44631</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1313,7 +1313,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44628</v>
+        <v>44631</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1329,7 +1329,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44628</v>
+        <v>44631</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1345,7 +1345,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44628</v>
+        <v>44631</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1361,7 +1361,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44628</v>
+        <v>44631</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1377,7 +1377,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44628</v>
+        <v>44631</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1393,7 +1393,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44628</v>
+        <v>44631</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1409,7 +1409,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44628</v>
+        <v>44631</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1425,7 +1425,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44628</v>
+        <v>44631</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1441,7 +1441,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44628</v>
+        <v>44631</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1457,7 +1457,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44628</v>
+        <v>44631</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1473,7 +1473,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44628</v>
+        <v>44631</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1489,7 +1489,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44628</v>
+        <v>44631</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1505,7 +1505,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44628</v>
+        <v>44631</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44628</v>
+        <v>44631</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1537,7 +1537,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44628</v>
+        <v>44631</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1553,7 +1553,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44628</v>
+        <v>44631</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1569,7 +1569,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44628</v>
+        <v>44631</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1585,7 +1585,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44628</v>
+        <v>44631</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1601,7 +1601,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44628</v>
+        <v>44631</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1617,7 +1617,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44628</v>
+        <v>44631</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1633,7 +1633,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44628</v>
+        <v>44631</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1650,7 +1650,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44628</v>
+        <v>44631</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/PP DELHI.xlsx
+++ b/IMPORTANT/PP DELHI.xlsx
@@ -1077,7 +1077,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1165,7 +1165,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>44631</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1189,12 +1189,16 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A7" s="49"/>
-      <c r="B7" s="16"/>
+      <c r="A7" s="49">
+        <v>44614</v>
+      </c>
+      <c r="B7" s="16">
+        <v>46084</v>
+      </c>
       <c r="C7" s="9"/>
       <c r="D7" s="51"/>
       <c r="F7" s="49">
@@ -1205,11 +1209,11 @@
       </c>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>28430</v>
+        <v>74514</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44631</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1225,11 +1229,11 @@
       </c>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>28430</v>
+        <v>74514</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44631</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1245,11 +1249,11 @@
       </c>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>28430</v>
+        <v>74514</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44631</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1261,11 +1265,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>28430</v>
+        <v>74514</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44631</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1277,11 +1281,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>28430</v>
+        <v>74514</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44631</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1293,11 +1297,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>28430</v>
+        <v>74514</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44631</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1309,11 +1313,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>28430</v>
+        <v>74514</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44631</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1325,11 +1329,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>28430</v>
+        <v>74514</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44631</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1341,11 +1345,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>28430</v>
+        <v>74514</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44631</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1357,11 +1361,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>28430</v>
+        <v>74514</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44631</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1373,11 +1377,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>28430</v>
+        <v>74514</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44631</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1389,11 +1393,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>28430</v>
+        <v>74514</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44631</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1405,11 +1409,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>28430</v>
+        <v>74514</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44631</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1421,11 +1425,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>28430</v>
+        <v>74514</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44631</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1437,11 +1441,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>28430</v>
+        <v>74514</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44631</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1453,11 +1457,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>28430</v>
+        <v>74514</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44631</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1469,11 +1473,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>28430</v>
+        <v>74514</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44631</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1485,11 +1489,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>28430</v>
+        <v>74514</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44631</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1501,11 +1505,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>28430</v>
+        <v>74514</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44631</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1517,11 +1521,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>28430</v>
+        <v>74514</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44631</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1533,11 +1537,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>28430</v>
+        <v>74514</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44631</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1549,11 +1553,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>28430</v>
+        <v>74514</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44631</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1565,11 +1569,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>28430</v>
+        <v>74514</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44631</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1581,11 +1585,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>28430</v>
+        <v>74514</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44631</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1597,11 +1601,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>28430</v>
+        <v>74514</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44631</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1613,11 +1617,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>28430</v>
+        <v>74514</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44631</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1629,11 +1633,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>28430</v>
+        <v>74514</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44631</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1646,11 +1650,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>28430</v>
+        <v>74514</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44631</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1671,7 +1675,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>108561</v>
+        <v>154645</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1702,7 +1706,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>28430</v>
+        <v>74514</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/PP DELHI.xlsx
+++ b/IMPORTANT/PP DELHI.xlsx
@@ -54,7 +54,7 @@
     <t>CUSTOMER NAME -PP DELHI</t>
   </si>
   <si>
-    <t>TRANSFER</t>
+    <t>transfer</t>
   </si>
 </sst>
 </file>
@@ -1077,7 +1077,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1147,73 +1147,61 @@
     <row r="5" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
       <c r="A5" s="7"/>
       <c r="B5" s="8">
-        <v>64017</v>
+        <v>120000</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="7">
-        <v>44224</v>
+        <v>44670</v>
       </c>
       <c r="G5" s="8">
-        <v>15000</v>
+        <v>13992</v>
       </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>-16114</v>
+        <v>98706</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>44634</v>
+        <v>44670</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A6" s="7">
-        <v>44479</v>
-      </c>
-      <c r="B6" s="8">
-        <v>44544</v>
-      </c>
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
       <c r="C6" s="50"/>
       <c r="D6" s="9"/>
       <c r="F6" s="7">
-        <v>44528</v>
+        <v>44670</v>
       </c>
       <c r="G6" s="8">
-        <v>10000</v>
+        <v>7302</v>
       </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>28430</v>
+        <v>98706</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>155</v>
+        <v>44670</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A7" s="49">
-        <v>44614</v>
-      </c>
-      <c r="B7" s="16">
-        <v>46084</v>
-      </c>
+      <c r="A7" s="49"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="9"/>
       <c r="D7" s="51"/>
-      <c r="F7" s="49">
-        <v>44567</v>
-      </c>
-      <c r="G7" s="16">
-        <v>15131</v>
-      </c>
+      <c r="F7" s="49"/>
+      <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>74514</v>
+        <v>98706</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>20</v>
+        <v>44670</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1221,19 +1209,15 @@
       <c r="B8" s="16"/>
       <c r="C8" s="19"/>
       <c r="D8" s="18"/>
-      <c r="F8" s="15">
-        <v>44602</v>
-      </c>
-      <c r="G8" s="16">
-        <v>25000</v>
-      </c>
+      <c r="F8" s="15"/>
+      <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>74514</v>
+        <v>98706</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44634</v>
+        <v>44670</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1241,19 +1225,15 @@
       <c r="B9" s="13"/>
       <c r="C9" s="14"/>
       <c r="D9" s="18"/>
-      <c r="F9" s="15">
-        <v>44610</v>
-      </c>
-      <c r="G9" s="16">
-        <v>15000</v>
-      </c>
+      <c r="F9" s="15"/>
+      <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>74514</v>
+        <v>98706</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44634</v>
+        <v>44670</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1265,11 +1245,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>74514</v>
+        <v>98706</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44670</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1281,11 +1261,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>74514</v>
+        <v>98706</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44670</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1297,11 +1277,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>74514</v>
+        <v>98706</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44670</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1313,11 +1293,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>74514</v>
+        <v>98706</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44670</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1329,11 +1309,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>74514</v>
+        <v>98706</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44670</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1345,11 +1325,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>74514</v>
+        <v>98706</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44670</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1361,11 +1341,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>74514</v>
+        <v>98706</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44670</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1377,11 +1357,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>74514</v>
+        <v>98706</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44670</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1393,11 +1373,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>74514</v>
+        <v>98706</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44670</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1409,11 +1389,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>74514</v>
+        <v>98706</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44670</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1425,11 +1405,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>74514</v>
+        <v>98706</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44670</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1441,11 +1421,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>74514</v>
+        <v>98706</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44634</v>
+        <v>44670</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1457,11 +1437,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>74514</v>
+        <v>98706</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44670</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1473,11 +1453,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>74514</v>
+        <v>98706</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44670</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1489,11 +1469,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>74514</v>
+        <v>98706</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44670</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1505,11 +1485,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>74514</v>
+        <v>98706</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44670</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1521,11 +1501,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>74514</v>
+        <v>98706</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44670</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1537,11 +1517,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>74514</v>
+        <v>98706</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44670</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1553,11 +1533,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>74514</v>
+        <v>98706</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44670</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1569,11 +1549,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>74514</v>
+        <v>98706</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44670</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1585,11 +1565,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>74514</v>
+        <v>98706</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44670</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1601,11 +1581,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>74514</v>
+        <v>98706</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44670</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1617,11 +1597,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>74514</v>
+        <v>98706</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44670</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1633,11 +1613,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>74514</v>
+        <v>98706</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44670</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1650,11 +1630,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>74514</v>
+        <v>98706</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44634</v>
+        <v>44670</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1675,7 +1655,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>154645</v>
+        <v>120000</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1683,7 +1663,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>80131</v>
+        <v>21294</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1706,7 +1686,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>74514</v>
+        <v>98706</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/PP DELHI.xlsx
+++ b/IMPORTANT/PP DELHI.xlsx
@@ -1077,7 +1077,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1161,11 +1161,11 @@
       </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>98706</v>
+        <v>65706</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>44670</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1181,11 +1181,11 @@
       </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>98706</v>
+        <v>65706</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44670</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1193,15 +1193,19 @@
       <c r="B7" s="16"/>
       <c r="C7" s="9"/>
       <c r="D7" s="51"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="16"/>
+      <c r="F7" s="49">
+        <v>44688</v>
+      </c>
+      <c r="G7" s="16">
+        <v>20000</v>
+      </c>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>98706</v>
+        <v>65706</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44670</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1209,15 +1213,19 @@
       <c r="B8" s="16"/>
       <c r="C8" s="19"/>
       <c r="D8" s="18"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="16"/>
+      <c r="F8" s="15">
+        <v>44700</v>
+      </c>
+      <c r="G8" s="16">
+        <v>13000</v>
+      </c>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>98706</v>
+        <v>65706</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44670</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1229,11 +1237,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>98706</v>
+        <v>65706</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44670</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1245,11 +1253,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>98706</v>
+        <v>65706</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44670</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1261,11 +1269,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>98706</v>
+        <v>65706</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44670</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1277,11 +1285,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>98706</v>
+        <v>65706</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44670</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1293,11 +1301,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>98706</v>
+        <v>65706</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44670</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1309,11 +1317,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>98706</v>
+        <v>65706</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44670</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1325,11 +1333,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>98706</v>
+        <v>65706</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44670</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1341,11 +1349,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>98706</v>
+        <v>65706</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44670</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1357,11 +1365,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>98706</v>
+        <v>65706</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44670</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1373,11 +1381,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>98706</v>
+        <v>65706</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44670</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1389,11 +1397,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>98706</v>
+        <v>65706</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44670</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1405,11 +1413,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>98706</v>
+        <v>65706</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44670</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1421,11 +1429,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>98706</v>
+        <v>65706</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44670</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1437,11 +1445,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>98706</v>
+        <v>65706</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44670</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1453,11 +1461,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>98706</v>
+        <v>65706</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44670</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1469,11 +1477,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>98706</v>
+        <v>65706</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44670</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1485,11 +1493,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>98706</v>
+        <v>65706</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44670</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1501,11 +1509,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>98706</v>
+        <v>65706</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44670</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1517,11 +1525,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>98706</v>
+        <v>65706</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44670</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1533,11 +1541,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>98706</v>
+        <v>65706</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44670</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1549,11 +1557,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>98706</v>
+        <v>65706</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44670</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1565,11 +1573,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>98706</v>
+        <v>65706</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44670</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1581,11 +1589,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>98706</v>
+        <v>65706</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44670</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1597,11 +1605,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>98706</v>
+        <v>65706</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44670</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1613,11 +1621,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>98706</v>
+        <v>65706</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44670</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1630,11 +1638,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>98706</v>
+        <v>65706</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44670</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1663,7 +1671,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>21294</v>
+        <v>54294</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1686,7 +1694,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>98706</v>
+        <v>65706</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/PP DELHI.xlsx
+++ b/IMPORTANT/PP DELHI.xlsx
@@ -1165,7 +1165,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>44713</v>
+        <v>44714</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1185,7 +1185,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44713</v>
+        <v>44714</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1205,7 +1205,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44713</v>
+        <v>44714</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44713</v>
+        <v>44714</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1241,7 +1241,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44713</v>
+        <v>44714</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1257,7 +1257,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44714</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44714</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1289,7 +1289,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44714</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44714</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44714</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1337,7 +1337,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44714</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1353,7 +1353,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44714</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44714</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1385,7 +1385,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44714</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1401,7 +1401,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44714</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44714</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1433,7 +1433,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44713</v>
+        <v>44714</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1449,7 +1449,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44714</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44714</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1481,7 +1481,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44714</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1497,7 +1497,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44714</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44714</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1529,7 +1529,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44714</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1545,7 +1545,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44714</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44714</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1577,7 +1577,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44714</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1593,7 +1593,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44714</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44714</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1625,7 +1625,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44714</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44713</v>
+        <v>44714</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/PP DELHI.xlsx
+++ b/IMPORTANT/PP DELHI.xlsx
@@ -1077,7 +1077,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1161,11 +1161,11 @@
       </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>65706</v>
+        <v>45706</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>44714</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1181,11 +1181,11 @@
       </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>65706</v>
+        <v>45706</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44714</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1201,11 +1201,11 @@
       </c>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>65706</v>
+        <v>45706</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44714</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1221,11 +1221,11 @@
       </c>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>65706</v>
+        <v>45706</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44714</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1233,15 +1233,19 @@
       <c r="B9" s="13"/>
       <c r="C9" s="14"/>
       <c r="D9" s="18"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="16"/>
+      <c r="F9" s="15">
+        <v>44723</v>
+      </c>
+      <c r="G9" s="16">
+        <v>10000</v>
+      </c>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>65706</v>
+        <v>45706</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44714</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1249,15 +1253,19 @@
       <c r="B10" s="13"/>
       <c r="C10" s="14"/>
       <c r="D10" s="18"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="16"/>
+      <c r="F10" s="15">
+        <v>44746</v>
+      </c>
+      <c r="G10" s="16">
+        <v>10000</v>
+      </c>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>65706</v>
+        <v>45706</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44714</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1269,11 +1277,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>65706</v>
+        <v>45706</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44714</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1285,11 +1293,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>65706</v>
+        <v>45706</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44714</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1301,11 +1309,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>65706</v>
+        <v>45706</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44714</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1317,11 +1325,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>65706</v>
+        <v>45706</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44714</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1333,11 +1341,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>65706</v>
+        <v>45706</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44714</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1349,11 +1357,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>65706</v>
+        <v>45706</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44714</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1365,11 +1373,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>65706</v>
+        <v>45706</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44714</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1381,11 +1389,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>65706</v>
+        <v>45706</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44714</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1397,11 +1405,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>65706</v>
+        <v>45706</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44714</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1413,11 +1421,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>65706</v>
+        <v>45706</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44714</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1429,11 +1437,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>65706</v>
+        <v>45706</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44714</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1445,11 +1453,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>65706</v>
+        <v>45706</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44714</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1461,11 +1469,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>65706</v>
+        <v>45706</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44714</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1477,11 +1485,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>65706</v>
+        <v>45706</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44714</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1493,11 +1501,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>65706</v>
+        <v>45706</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44714</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1509,11 +1517,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>65706</v>
+        <v>45706</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44714</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1525,11 +1533,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>65706</v>
+        <v>45706</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44714</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1541,11 +1549,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>65706</v>
+        <v>45706</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44714</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1557,11 +1565,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>65706</v>
+        <v>45706</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44714</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1573,11 +1581,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>65706</v>
+        <v>45706</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44714</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1589,11 +1597,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>65706</v>
+        <v>45706</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44714</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1605,11 +1613,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>65706</v>
+        <v>45706</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44714</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1621,11 +1629,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>65706</v>
+        <v>45706</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44714</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1638,11 +1646,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>65706</v>
+        <v>45706</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44714</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1671,7 +1679,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>54294</v>
+        <v>74294</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1694,7 +1702,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>65706</v>
+        <v>45706</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/PP DELHI.xlsx
+++ b/IMPORTANT/PP DELHI.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>DATE</t>
   </si>
@@ -52,9 +52,6 @@
   </si>
   <si>
     <t>CUSTOMER NAME -PP DELHI</t>
-  </si>
-  <si>
-    <t>transfer</t>
   </si>
 </sst>
 </file>
@@ -1077,7 +1074,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="A5" sqref="A5:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1146,26 +1143,18 @@
     </row>
     <row r="5" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
       <c r="A5" s="7"/>
-      <c r="B5" s="8">
-        <v>120000</v>
-      </c>
+      <c r="B5" s="8"/>
       <c r="C5" s="9"/>
-      <c r="D5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="7">
-        <v>44670</v>
-      </c>
-      <c r="G5" s="8">
-        <v>13992</v>
-      </c>
+      <c r="D5" s="9"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8"/>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>45706</v>
+        <v>0</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1173,19 +1162,15 @@
       <c r="B6" s="8"/>
       <c r="C6" s="50"/>
       <c r="D6" s="9"/>
-      <c r="F6" s="7">
-        <v>44670</v>
-      </c>
-      <c r="G6" s="8">
-        <v>7302</v>
-      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8"/>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>45706</v>
+        <v>0</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1193,19 +1178,15 @@
       <c r="B7" s="16"/>
       <c r="C7" s="9"/>
       <c r="D7" s="51"/>
-      <c r="F7" s="49">
-        <v>44688</v>
-      </c>
-      <c r="G7" s="16">
-        <v>20000</v>
-      </c>
+      <c r="F7" s="49"/>
+      <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>45706</v>
+        <v>0</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1213,19 +1194,15 @@
       <c r="B8" s="16"/>
       <c r="C8" s="19"/>
       <c r="D8" s="18"/>
-      <c r="F8" s="15">
-        <v>44700</v>
-      </c>
-      <c r="G8" s="16">
-        <v>13000</v>
-      </c>
+      <c r="F8" s="15"/>
+      <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>45706</v>
+        <v>0</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1233,19 +1210,15 @@
       <c r="B9" s="13"/>
       <c r="C9" s="14"/>
       <c r="D9" s="18"/>
-      <c r="F9" s="15">
-        <v>44723</v>
-      </c>
-      <c r="G9" s="16">
-        <v>10000</v>
-      </c>
+      <c r="F9" s="15"/>
+      <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>45706</v>
+        <v>0</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1253,19 +1226,15 @@
       <c r="B10" s="13"/>
       <c r="C10" s="14"/>
       <c r="D10" s="18"/>
-      <c r="F10" s="15">
-        <v>44746</v>
-      </c>
-      <c r="G10" s="16">
-        <v>10000</v>
-      </c>
+      <c r="F10" s="15"/>
+      <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>45706</v>
+        <v>0</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1277,11 +1246,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>45706</v>
+        <v>0</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1293,11 +1262,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>45706</v>
+        <v>0</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1309,11 +1278,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>45706</v>
+        <v>0</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1325,11 +1294,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>45706</v>
+        <v>0</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1341,11 +1310,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>45706</v>
+        <v>0</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1357,11 +1326,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>45706</v>
+        <v>0</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1373,11 +1342,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>45706</v>
+        <v>0</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1389,11 +1358,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>45706</v>
+        <v>0</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1405,11 +1374,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>45706</v>
+        <v>0</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1421,11 +1390,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>45706</v>
+        <v>0</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1437,11 +1406,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>45706</v>
+        <v>0</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1453,11 +1422,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>45706</v>
+        <v>0</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1469,11 +1438,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>45706</v>
+        <v>0</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1485,11 +1454,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>45706</v>
+        <v>0</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1501,11 +1470,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>45706</v>
+        <v>0</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1517,11 +1486,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>45706</v>
+        <v>0</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1533,11 +1502,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>45706</v>
+        <v>0</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1549,11 +1518,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>45706</v>
+        <v>0</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1565,11 +1534,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>45706</v>
+        <v>0</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1581,11 +1550,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>45706</v>
+        <v>0</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1597,11 +1566,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>45706</v>
+        <v>0</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1613,11 +1582,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>45706</v>
+        <v>0</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1629,11 +1598,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>45706</v>
+        <v>0</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1646,11 +1615,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>45706</v>
+        <v>0</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1671,7 +1640,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1679,7 +1648,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>74294</v>
+        <v>0</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1702,7 +1671,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>45706</v>
+        <v>0</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/PP DELHI.xlsx
+++ b/IMPORTANT/PP DELHI.xlsx
@@ -1074,7 +1074,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:G11"/>
+      <selection activeCell="A6" sqref="A5:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1154,7 +1154,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1170,7 +1170,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1186,7 +1186,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1202,7 +1202,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1218,7 +1218,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1234,7 +1234,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1250,7 +1250,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1266,7 +1266,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1282,7 +1282,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1298,7 +1298,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1314,7 +1314,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1330,7 +1330,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1346,7 +1346,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1362,7 +1362,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1378,7 +1378,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1394,7 +1394,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1410,7 +1410,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1442,7 +1442,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1458,7 +1458,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1474,7 +1474,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1490,7 +1490,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1522,7 +1522,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1538,7 +1538,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1554,7 +1554,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1570,7 +1570,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1586,7 +1586,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1602,7 +1602,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/PP DELHI.xlsx
+++ b/IMPORTANT/PP DELHI.xlsx
@@ -1074,7 +1074,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A5:G11"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1142,19 +1142,23 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
+      <c r="A5" s="7">
+        <v>44824</v>
+      </c>
+      <c r="B5" s="8">
+        <v>67080</v>
+      </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="F5" s="7"/>
       <c r="G5" s="8"/>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>0</v>
+        <v>67080</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>44817</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1166,11 +1170,11 @@
       <c r="G6" s="8"/>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>0</v>
+        <v>67080</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1182,11 +1186,11 @@
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>0</v>
+        <v>67080</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1198,11 +1202,11 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>0</v>
+        <v>67080</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1214,11 +1218,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>0</v>
+        <v>67080</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1230,11 +1234,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>67080</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1246,11 +1250,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>67080</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1262,11 +1266,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>67080</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1278,11 +1282,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>67080</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1294,11 +1298,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>67080</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1310,11 +1314,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>67080</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1326,11 +1330,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>67080</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1342,11 +1346,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>67080</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1358,11 +1362,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>67080</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1374,11 +1378,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>67080</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1390,11 +1394,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>67080</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1406,11 +1410,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>67080</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1422,11 +1426,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>67080</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1438,11 +1442,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>67080</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1454,11 +1458,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>67080</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1470,11 +1474,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>67080</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1486,11 +1490,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>67080</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1502,11 +1506,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>67080</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1518,11 +1522,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>67080</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1534,11 +1538,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>67080</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1550,11 +1554,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>67080</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1566,11 +1570,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>67080</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1582,11 +1586,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>67080</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1598,11 +1602,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>0</v>
+        <v>67080</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1615,11 +1619,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>67080</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1640,7 +1644,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>0</v>
+        <v>67080</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1671,7 +1675,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>0</v>
+        <v>67080</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/PP DELHI.xlsx
+++ b/IMPORTANT/PP DELHI.xlsx
@@ -1158,7 +1158,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1174,7 +1174,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44838</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1190,7 +1190,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44838</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1206,7 +1206,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44838</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1222,7 +1222,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44838</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1238,7 +1238,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1254,7 +1254,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1270,7 +1270,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1286,7 +1286,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1302,7 +1302,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1318,7 +1318,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1334,7 +1334,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1350,7 +1350,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1366,7 +1366,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1382,7 +1382,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1398,7 +1398,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1414,7 +1414,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44838</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1430,7 +1430,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1446,7 +1446,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1462,7 +1462,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1478,7 +1478,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1494,7 +1494,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1510,7 +1510,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1526,7 +1526,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1542,7 +1542,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1558,7 +1558,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1590,7 +1590,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1606,7 +1606,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1623,7 +1623,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44838</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/PP DELHI.xlsx
+++ b/IMPORTANT/PP DELHI.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>DATE</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>CUSTOMER NAME -PP DELHI</t>
+  </si>
+  <si>
+    <t>aprx</t>
   </si>
 </sst>
 </file>
@@ -1074,7 +1077,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1158,23 +1161,30 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>18</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
+      <c r="A6" s="7">
+        <v>44837</v>
+      </c>
+      <c r="B6" s="8">
+        <v>52044</v>
+      </c>
       <c r="C6" s="50"/>
       <c r="D6" s="9"/>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
       <c r="F6" s="7"/>
       <c r="G6" s="8"/>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>67080</v>
+        <v>119124</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44842</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1186,11 +1196,11 @@
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>67080</v>
+        <v>119124</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44842</v>
+        <v>44870</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1202,11 +1212,11 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>67080</v>
+        <v>119124</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44842</v>
+        <v>44870</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1218,11 +1228,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>67080</v>
+        <v>119124</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44842</v>
+        <v>44870</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1234,11 +1244,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>67080</v>
+        <v>119124</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44842</v>
+        <v>44870</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1250,11 +1260,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>67080</v>
+        <v>119124</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44842</v>
+        <v>44870</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1266,11 +1276,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>67080</v>
+        <v>119124</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44842</v>
+        <v>44870</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1282,11 +1292,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>67080</v>
+        <v>119124</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44842</v>
+        <v>44870</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1298,11 +1308,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>67080</v>
+        <v>119124</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44842</v>
+        <v>44870</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1314,11 +1324,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>67080</v>
+        <v>119124</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44842</v>
+        <v>44870</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1330,11 +1340,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>67080</v>
+        <v>119124</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44842</v>
+        <v>44870</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1346,11 +1356,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>67080</v>
+        <v>119124</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44842</v>
+        <v>44870</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1362,11 +1372,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>67080</v>
+        <v>119124</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44842</v>
+        <v>44870</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1378,11 +1388,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>67080</v>
+        <v>119124</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44842</v>
+        <v>44870</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1394,11 +1404,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>67080</v>
+        <v>119124</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44842</v>
+        <v>44870</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1410,11 +1420,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>67080</v>
+        <v>119124</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44842</v>
+        <v>44870</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1426,11 +1436,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>67080</v>
+        <v>119124</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44842</v>
+        <v>44870</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1442,11 +1452,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>67080</v>
+        <v>119124</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44842</v>
+        <v>44870</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1458,11 +1468,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>67080</v>
+        <v>119124</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44842</v>
+        <v>44870</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1474,11 +1484,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>67080</v>
+        <v>119124</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44842</v>
+        <v>44870</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1490,11 +1500,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>67080</v>
+        <v>119124</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44842</v>
+        <v>44870</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1506,11 +1516,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>67080</v>
+        <v>119124</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44842</v>
+        <v>44870</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1522,11 +1532,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>67080</v>
+        <v>119124</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44842</v>
+        <v>44870</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1538,11 +1548,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>67080</v>
+        <v>119124</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44842</v>
+        <v>44870</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1554,11 +1564,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>67080</v>
+        <v>119124</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44842</v>
+        <v>44870</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1570,11 +1580,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>67080</v>
+        <v>119124</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44842</v>
+        <v>44870</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1586,11 +1596,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>67080</v>
+        <v>119124</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44842</v>
+        <v>44870</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1602,11 +1612,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>67080</v>
+        <v>119124</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44842</v>
+        <v>44870</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1619,11 +1629,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>67080</v>
+        <v>119124</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44842</v>
+        <v>44870</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1644,7 +1654,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>67080</v>
+        <v>119124</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1675,7 +1685,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>67080</v>
+        <v>119124</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/PP DELHI.xlsx
+++ b/IMPORTANT/PP DELHI.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>DATE</t>
   </si>
@@ -52,9 +52,6 @@
   </si>
   <si>
     <t>CUSTOMER NAME -PP DELHI</t>
-  </si>
-  <si>
-    <t>aprx</t>
   </si>
 </sst>
 </file>
@@ -1161,7 +1158,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1173,9 +1170,6 @@
       </c>
       <c r="C6" s="50"/>
       <c r="D6" s="9"/>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
       <c r="F6" s="7"/>
       <c r="G6" s="8"/>
       <c r="H6" s="10">
@@ -1184,7 +1178,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1200,7 +1194,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44870</v>
+        <v>44873</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1216,7 +1210,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44870</v>
+        <v>44873</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1232,7 +1226,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44870</v>
+        <v>44873</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1248,7 +1242,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44870</v>
+        <v>44873</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1264,7 +1258,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44870</v>
+        <v>44873</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1280,7 +1274,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44870</v>
+        <v>44873</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1296,7 +1290,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44870</v>
+        <v>44873</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1312,7 +1306,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44870</v>
+        <v>44873</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1328,7 +1322,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44870</v>
+        <v>44873</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1344,7 +1338,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44870</v>
+        <v>44873</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1360,7 +1354,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44870</v>
+        <v>44873</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1376,7 +1370,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44870</v>
+        <v>44873</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1392,7 +1386,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44870</v>
+        <v>44873</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1408,7 +1402,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44870</v>
+        <v>44873</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1424,7 +1418,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44870</v>
+        <v>44873</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1440,7 +1434,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44870</v>
+        <v>44873</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1456,7 +1450,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44870</v>
+        <v>44873</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1472,7 +1466,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44870</v>
+        <v>44873</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1488,7 +1482,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44870</v>
+        <v>44873</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1504,7 +1498,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44870</v>
+        <v>44873</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1520,7 +1514,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44870</v>
+        <v>44873</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1536,7 +1530,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44870</v>
+        <v>44873</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1552,7 +1546,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44870</v>
+        <v>44873</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1568,7 +1562,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44870</v>
+        <v>44873</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1584,7 +1578,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44870</v>
+        <v>44873</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1600,7 +1594,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44870</v>
+        <v>44873</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1616,7 +1610,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44870</v>
+        <v>44873</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1633,7 +1627,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44870</v>
+        <v>44873</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/PP DELHI.xlsx
+++ b/IMPORTANT/PP DELHI.xlsx
@@ -1074,7 +1074,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1150,15 +1150,19 @@
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="8"/>
+      <c r="F5" s="7">
+        <v>44890</v>
+      </c>
+      <c r="G5" s="8">
+        <v>37475</v>
+      </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>67080</v>
+        <v>16605</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>49</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1170,15 +1174,19 @@
       </c>
       <c r="C6" s="50"/>
       <c r="D6" s="9"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="8"/>
+      <c r="F6" s="7">
+        <v>44897</v>
+      </c>
+      <c r="G6" s="8">
+        <v>13000</v>
+      </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>119124</v>
+        <v>68649</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>36</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1190,11 +1198,11 @@
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>119124</v>
+        <v>68649</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44873</v>
+        <v>44897</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1206,11 +1214,11 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>119124</v>
+        <v>68649</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44873</v>
+        <v>44897</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1222,11 +1230,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>119124</v>
+        <v>68649</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44873</v>
+        <v>44897</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1238,11 +1246,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>119124</v>
+        <v>68649</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44873</v>
+        <v>44897</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1254,11 +1262,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>119124</v>
+        <v>68649</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44873</v>
+        <v>44897</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1270,11 +1278,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>119124</v>
+        <v>68649</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44873</v>
+        <v>44897</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1286,11 +1294,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>119124</v>
+        <v>68649</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44873</v>
+        <v>44897</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1302,11 +1310,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>119124</v>
+        <v>68649</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44873</v>
+        <v>44897</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1318,11 +1326,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>119124</v>
+        <v>68649</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44873</v>
+        <v>44897</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1334,11 +1342,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>119124</v>
+        <v>68649</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44873</v>
+        <v>44897</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1350,11 +1358,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>119124</v>
+        <v>68649</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44873</v>
+        <v>44897</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1366,11 +1374,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>119124</v>
+        <v>68649</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44873</v>
+        <v>44897</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1382,11 +1390,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>119124</v>
+        <v>68649</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44873</v>
+        <v>44897</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1398,11 +1406,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>119124</v>
+        <v>68649</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44873</v>
+        <v>44897</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1414,11 +1422,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>119124</v>
+        <v>68649</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44873</v>
+        <v>44897</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1430,11 +1438,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>119124</v>
+        <v>68649</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44873</v>
+        <v>44897</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1446,11 +1454,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>119124</v>
+        <v>68649</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44873</v>
+        <v>44897</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1462,11 +1470,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>119124</v>
+        <v>68649</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44873</v>
+        <v>44897</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1478,11 +1486,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>119124</v>
+        <v>68649</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44873</v>
+        <v>44897</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1494,11 +1502,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>119124</v>
+        <v>68649</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44873</v>
+        <v>44897</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1510,11 +1518,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>119124</v>
+        <v>68649</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44873</v>
+        <v>44897</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1526,11 +1534,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>119124</v>
+        <v>68649</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44873</v>
+        <v>44897</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1542,11 +1550,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>119124</v>
+        <v>68649</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44873</v>
+        <v>44897</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1558,11 +1566,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>119124</v>
+        <v>68649</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44873</v>
+        <v>44897</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1574,11 +1582,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>119124</v>
+        <v>68649</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44873</v>
+        <v>44897</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1590,11 +1598,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>119124</v>
+        <v>68649</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44873</v>
+        <v>44897</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1606,11 +1614,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>119124</v>
+        <v>68649</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44873</v>
+        <v>44897</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1623,11 +1631,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>119124</v>
+        <v>68649</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44873</v>
+        <v>44897</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1656,7 +1664,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>0</v>
+        <v>50475</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1679,7 +1687,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>119124</v>
+        <v>68649</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/PP DELHI.xlsx
+++ b/IMPORTANT/PP DELHI.xlsx
@@ -1162,7 +1162,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1186,7 +1186,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1202,7 +1202,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44897</v>
+        <v>44901</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1218,7 +1218,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44897</v>
+        <v>44901</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1234,7 +1234,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44897</v>
+        <v>44901</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1250,7 +1250,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44897</v>
+        <v>44901</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1266,7 +1266,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44897</v>
+        <v>44901</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1282,7 +1282,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44897</v>
+        <v>44901</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1298,7 +1298,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44897</v>
+        <v>44901</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1314,7 +1314,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44897</v>
+        <v>44901</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1330,7 +1330,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44897</v>
+        <v>44901</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1346,7 +1346,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44897</v>
+        <v>44901</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1362,7 +1362,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44897</v>
+        <v>44901</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1378,7 +1378,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44897</v>
+        <v>44901</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1394,7 +1394,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44897</v>
+        <v>44901</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1410,7 +1410,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44897</v>
+        <v>44901</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44897</v>
+        <v>44901</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1442,7 +1442,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44897</v>
+        <v>44901</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1458,7 +1458,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44897</v>
+        <v>44901</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1474,7 +1474,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44897</v>
+        <v>44901</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1490,7 +1490,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44897</v>
+        <v>44901</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44897</v>
+        <v>44901</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1522,7 +1522,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44897</v>
+        <v>44901</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1538,7 +1538,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44897</v>
+        <v>44901</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1554,7 +1554,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44897</v>
+        <v>44901</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1570,7 +1570,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44897</v>
+        <v>44901</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1586,7 +1586,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44897</v>
+        <v>44901</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1602,7 +1602,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44897</v>
+        <v>44901</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1618,7 +1618,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44897</v>
+        <v>44901</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1635,7 +1635,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44897</v>
+        <v>44901</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/PP DELHI.xlsx
+++ b/IMPORTANT/PP DELHI.xlsx
@@ -1074,7 +1074,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1158,11 +1158,11 @@
       </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>16605</v>
+        <v>24605</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>77</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1178,15 +1178,15 @@
         <v>44897</v>
       </c>
       <c r="G6" s="8">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>68649</v>
+        <v>76649</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1198,11 +1198,11 @@
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>68649</v>
+        <v>76649</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44901</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1214,11 +1214,11 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>68649</v>
+        <v>76649</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44901</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1230,11 +1230,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>68649</v>
+        <v>76649</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44901</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1246,11 +1246,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>68649</v>
+        <v>76649</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44901</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1262,11 +1262,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>68649</v>
+        <v>76649</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44901</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1278,11 +1278,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>68649</v>
+        <v>76649</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44901</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1294,11 +1294,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>68649</v>
+        <v>76649</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44901</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1310,11 +1310,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>68649</v>
+        <v>76649</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44901</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1326,11 +1326,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>68649</v>
+        <v>76649</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44901</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1342,11 +1342,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>68649</v>
+        <v>76649</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44901</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1358,11 +1358,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>68649</v>
+        <v>76649</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44901</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1374,11 +1374,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>68649</v>
+        <v>76649</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44901</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1390,11 +1390,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>68649</v>
+        <v>76649</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44901</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1406,11 +1406,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>68649</v>
+        <v>76649</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44901</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1422,11 +1422,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>68649</v>
+        <v>76649</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44901</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1438,11 +1438,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>68649</v>
+        <v>76649</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44901</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1454,11 +1454,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>68649</v>
+        <v>76649</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44901</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1470,11 +1470,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>68649</v>
+        <v>76649</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44901</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1486,11 +1486,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>68649</v>
+        <v>76649</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44901</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1502,11 +1502,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>68649</v>
+        <v>76649</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44901</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1518,11 +1518,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>68649</v>
+        <v>76649</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44901</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1534,11 +1534,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>68649</v>
+        <v>76649</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44901</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1550,11 +1550,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>68649</v>
+        <v>76649</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44901</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1566,11 +1566,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>68649</v>
+        <v>76649</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44901</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1582,11 +1582,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>68649</v>
+        <v>76649</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44901</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1598,11 +1598,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>68649</v>
+        <v>76649</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44901</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1614,11 +1614,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>68649</v>
+        <v>76649</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44901</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1631,11 +1631,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>68649</v>
+        <v>76649</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44901</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1664,7 +1664,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>50475</v>
+        <v>42475</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1687,7 +1687,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>68649</v>
+        <v>76649</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/PP DELHI.xlsx
+++ b/IMPORTANT/PP DELHI.xlsx
@@ -1074,7 +1074,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1158,11 +1158,11 @@
       </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>24605</v>
+        <v>9605</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1182,11 +1182,11 @@
       </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>76649</v>
+        <v>61649</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1194,15 +1194,19 @@
       <c r="B7" s="16"/>
       <c r="C7" s="9"/>
       <c r="D7" s="51"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="16"/>
+      <c r="F7" s="49">
+        <v>44923</v>
+      </c>
+      <c r="G7" s="16">
+        <v>15000</v>
+      </c>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>76649</v>
+        <v>61649</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44915</v>
+        <v>44923</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1214,11 +1218,11 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>76649</v>
+        <v>61649</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44915</v>
+        <v>44923</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1230,11 +1234,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>76649</v>
+        <v>61649</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44915</v>
+        <v>44923</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1246,11 +1250,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>76649</v>
+        <v>61649</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44923</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1262,11 +1266,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>76649</v>
+        <v>61649</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44923</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1278,11 +1282,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>76649</v>
+        <v>61649</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44923</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1294,11 +1298,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>76649</v>
+        <v>61649</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44923</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1310,11 +1314,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>76649</v>
+        <v>61649</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44923</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1326,11 +1330,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>76649</v>
+        <v>61649</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44923</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1342,11 +1346,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>76649</v>
+        <v>61649</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44923</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1358,11 +1362,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>76649</v>
+        <v>61649</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44923</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1374,11 +1378,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>76649</v>
+        <v>61649</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44923</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1390,11 +1394,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>76649</v>
+        <v>61649</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44923</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1406,11 +1410,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>76649</v>
+        <v>61649</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44923</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1422,11 +1426,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>76649</v>
+        <v>61649</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44915</v>
+        <v>44923</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1438,11 +1442,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>76649</v>
+        <v>61649</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44923</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1454,11 +1458,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>76649</v>
+        <v>61649</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44923</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1470,11 +1474,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>76649</v>
+        <v>61649</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44923</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1486,11 +1490,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>76649</v>
+        <v>61649</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44923</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1502,11 +1506,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>76649</v>
+        <v>61649</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44923</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1518,11 +1522,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>76649</v>
+        <v>61649</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44923</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1534,11 +1538,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>76649</v>
+        <v>61649</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44923</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1550,11 +1554,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>76649</v>
+        <v>61649</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44923</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1566,11 +1570,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>76649</v>
+        <v>61649</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44923</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1582,11 +1586,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>76649</v>
+        <v>61649</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44923</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1598,11 +1602,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>76649</v>
+        <v>61649</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44923</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1614,11 +1618,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>76649</v>
+        <v>61649</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44923</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1631,11 +1635,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>76649</v>
+        <v>61649</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44915</v>
+        <v>44923</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1664,7 +1668,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>42475</v>
+        <v>57475</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1687,7 +1691,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>76649</v>
+        <v>61649</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/PP DELHI.xlsx
+++ b/IMPORTANT/PP DELHI.xlsx
@@ -1074,7 +1074,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1142,51 +1142,45 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A5" s="7">
-        <v>44824</v>
-      </c>
+      <c r="A5" s="7"/>
       <c r="B5" s="8">
-        <v>67080</v>
+        <v>60500</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="F5" s="7">
-        <v>44890</v>
+        <v>44585</v>
       </c>
       <c r="G5" s="8">
-        <v>37475</v>
+        <v>17700</v>
       </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>9605</v>
+        <v>34400</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>99</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A6" s="7">
-        <v>44837</v>
-      </c>
-      <c r="B6" s="8">
-        <v>52044</v>
-      </c>
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
       <c r="C6" s="50"/>
       <c r="D6" s="9"/>
       <c r="F6" s="7">
-        <v>44897</v>
+        <v>44956</v>
       </c>
       <c r="G6" s="8">
-        <v>5000</v>
+        <v>8400</v>
       </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>61649</v>
+        <v>34400</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>86</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1194,19 +1188,15 @@
       <c r="B7" s="16"/>
       <c r="C7" s="9"/>
       <c r="D7" s="51"/>
-      <c r="F7" s="49">
-        <v>44923</v>
-      </c>
-      <c r="G7" s="16">
-        <v>15000</v>
-      </c>
+      <c r="F7" s="49"/>
+      <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>61649</v>
+        <v>34400</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44923</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1218,11 +1208,11 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>61649</v>
+        <v>34400</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44923</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1234,11 +1224,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>61649</v>
+        <v>34400</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44923</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1250,11 +1240,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>61649</v>
+        <v>34400</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44923</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1266,11 +1256,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>61649</v>
+        <v>34400</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44923</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1282,11 +1272,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>61649</v>
+        <v>34400</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44923</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1298,11 +1288,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>61649</v>
+        <v>34400</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44923</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1314,11 +1304,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>61649</v>
+        <v>34400</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44923</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1330,11 +1320,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>61649</v>
+        <v>34400</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44923</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1346,11 +1336,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>61649</v>
+        <v>34400</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44923</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1362,11 +1352,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>61649</v>
+        <v>34400</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44923</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1378,11 +1368,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>61649</v>
+        <v>34400</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44923</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1394,11 +1384,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>61649</v>
+        <v>34400</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44923</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1410,11 +1400,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>61649</v>
+        <v>34400</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44923</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1426,11 +1416,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>61649</v>
+        <v>34400</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44923</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1442,11 +1432,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>61649</v>
+        <v>34400</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44923</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1458,11 +1448,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>61649</v>
+        <v>34400</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44923</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1474,11 +1464,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>61649</v>
+        <v>34400</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44923</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1490,11 +1480,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>61649</v>
+        <v>34400</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44923</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1506,11 +1496,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>61649</v>
+        <v>34400</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44923</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1522,11 +1512,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>61649</v>
+        <v>34400</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44923</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1538,11 +1528,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>61649</v>
+        <v>34400</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44923</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1554,11 +1544,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>61649</v>
+        <v>34400</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44923</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1570,11 +1560,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>61649</v>
+        <v>34400</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44923</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1586,11 +1576,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>61649</v>
+        <v>34400</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44923</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1602,11 +1592,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>61649</v>
+        <v>34400</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44923</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1618,11 +1608,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>61649</v>
+        <v>34400</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44923</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1635,11 +1625,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>61649</v>
+        <v>34400</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44923</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1660,7 +1650,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>119124</v>
+        <v>60500</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1668,7 +1658,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>57475</v>
+        <v>26100</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1691,7 +1681,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>61649</v>
+        <v>34400</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/PP DELHI.xlsx
+++ b/IMPORTANT/PP DELHI.xlsx
@@ -1074,7 +1074,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1156,11 +1156,11 @@
       </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>34400</v>
+        <v>26900</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>44956</v>
+        <v>44963</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1176,11 +1176,11 @@
       </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>34400</v>
+        <v>26900</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44956</v>
+        <v>44963</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1188,15 +1188,19 @@
       <c r="B7" s="16"/>
       <c r="C7" s="9"/>
       <c r="D7" s="51"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="16"/>
+      <c r="F7" s="49">
+        <v>44961</v>
+      </c>
+      <c r="G7" s="16">
+        <v>7500</v>
+      </c>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>34400</v>
+        <v>26900</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44956</v>
+        <v>44963</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1208,11 +1212,11 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>34400</v>
+        <v>26900</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44956</v>
+        <v>44963</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1224,11 +1228,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>34400</v>
+        <v>26900</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44956</v>
+        <v>44963</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1240,11 +1244,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>34400</v>
+        <v>26900</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44963</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1256,11 +1260,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>34400</v>
+        <v>26900</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44963</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1272,11 +1276,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>34400</v>
+        <v>26900</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44963</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1288,11 +1292,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>34400</v>
+        <v>26900</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44963</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1304,11 +1308,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>34400</v>
+        <v>26900</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44963</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1320,11 +1324,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>34400</v>
+        <v>26900</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44963</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1336,11 +1340,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>34400</v>
+        <v>26900</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44963</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1352,11 +1356,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>34400</v>
+        <v>26900</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44963</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1368,11 +1372,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>34400</v>
+        <v>26900</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44963</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1384,11 +1388,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>34400</v>
+        <v>26900</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44963</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1400,11 +1404,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>34400</v>
+        <v>26900</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44963</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1416,11 +1420,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>34400</v>
+        <v>26900</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44956</v>
+        <v>44963</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1432,11 +1436,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>34400</v>
+        <v>26900</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44963</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1448,11 +1452,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>34400</v>
+        <v>26900</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44963</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1464,11 +1468,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>34400</v>
+        <v>26900</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44963</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1480,11 +1484,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>34400</v>
+        <v>26900</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44963</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1496,11 +1500,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>34400</v>
+        <v>26900</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44963</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1512,11 +1516,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>34400</v>
+        <v>26900</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44963</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1528,11 +1532,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>34400</v>
+        <v>26900</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44963</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1544,11 +1548,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>34400</v>
+        <v>26900</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44963</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1560,11 +1564,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>34400</v>
+        <v>26900</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44963</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1576,11 +1580,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>34400</v>
+        <v>26900</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44963</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1592,11 +1596,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>34400</v>
+        <v>26900</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44963</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1608,11 +1612,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>34400</v>
+        <v>26900</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44963</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1625,11 +1629,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>34400</v>
+        <v>26900</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44956</v>
+        <v>44963</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1658,7 +1662,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>26100</v>
+        <v>33600</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1681,7 +1685,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>34400</v>
+        <v>26900</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/PP DELHI.xlsx
+++ b/IMPORTANT/PP DELHI.xlsx
@@ -1160,7 +1160,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>44963</v>
+        <v>44969</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1180,7 +1180,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44963</v>
+        <v>44969</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1200,7 +1200,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44963</v>
+        <v>44969</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1216,7 +1216,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44963</v>
+        <v>44969</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1232,7 +1232,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44963</v>
+        <v>44969</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44963</v>
+        <v>44969</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1264,7 +1264,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44963</v>
+        <v>44969</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1280,7 +1280,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44963</v>
+        <v>44969</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1296,7 +1296,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44963</v>
+        <v>44969</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1312,7 +1312,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44963</v>
+        <v>44969</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1328,7 +1328,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44963</v>
+        <v>44969</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1344,7 +1344,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44963</v>
+        <v>44969</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1360,7 +1360,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44963</v>
+        <v>44969</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1376,7 +1376,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44963</v>
+        <v>44969</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1392,7 +1392,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44963</v>
+        <v>44969</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1408,7 +1408,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44963</v>
+        <v>44969</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1424,7 +1424,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44963</v>
+        <v>44969</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1440,7 +1440,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44963</v>
+        <v>44969</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1456,7 +1456,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44963</v>
+        <v>44969</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1472,7 +1472,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44963</v>
+        <v>44969</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1488,7 +1488,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44963</v>
+        <v>44969</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1504,7 +1504,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44963</v>
+        <v>44969</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1520,7 +1520,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44963</v>
+        <v>44969</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44963</v>
+        <v>44969</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1552,7 +1552,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44963</v>
+        <v>44969</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1568,7 +1568,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44963</v>
+        <v>44969</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44963</v>
+        <v>44969</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1600,7 +1600,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44963</v>
+        <v>44969</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1616,7 +1616,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44963</v>
+        <v>44969</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1633,7 +1633,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44963</v>
+        <v>44969</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/PP DELHI.xlsx
+++ b/IMPORTANT/PP DELHI.xlsx
@@ -1160,7 +1160,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>44969</v>
+        <v>44998</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1180,7 +1180,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44969</v>
+        <v>44998</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1200,7 +1200,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44969</v>
+        <v>44998</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1216,7 +1216,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44969</v>
+        <v>44998</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1232,7 +1232,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44969</v>
+        <v>44998</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44969</v>
+        <v>44998</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1264,7 +1264,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44969</v>
+        <v>44998</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1280,7 +1280,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44969</v>
+        <v>44998</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1296,7 +1296,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44969</v>
+        <v>44998</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1312,7 +1312,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44969</v>
+        <v>44998</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1328,7 +1328,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44969</v>
+        <v>44998</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1344,7 +1344,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44969</v>
+        <v>44998</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1360,7 +1360,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44969</v>
+        <v>44998</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1376,7 +1376,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44969</v>
+        <v>44998</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1392,7 +1392,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44969</v>
+        <v>44998</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1408,7 +1408,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44969</v>
+        <v>44998</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1424,7 +1424,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44969</v>
+        <v>44998</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1440,7 +1440,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44969</v>
+        <v>44998</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1456,7 +1456,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44969</v>
+        <v>44998</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1472,7 +1472,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44969</v>
+        <v>44998</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1488,7 +1488,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44969</v>
+        <v>44998</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1504,7 +1504,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44969</v>
+        <v>44998</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1520,7 +1520,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44969</v>
+        <v>44998</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44969</v>
+        <v>44998</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1552,7 +1552,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44969</v>
+        <v>44998</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1568,7 +1568,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44969</v>
+        <v>44998</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44969</v>
+        <v>44998</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1600,7 +1600,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44969</v>
+        <v>44998</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1616,7 +1616,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44969</v>
+        <v>44998</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1633,7 +1633,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44969</v>
+        <v>44998</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/PP DELHI.xlsx
+++ b/IMPORTANT/PP DELHI.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>DATE</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>CUSTOMER NAME -PP DELHI</t>
+  </si>
+  <si>
+    <t>TRANSFER</t>
   </si>
 </sst>
 </file>
@@ -1074,7 +1077,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1142,25 +1145,25 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A5" s="7"/>
+      <c r="A5" s="7">
+        <v>45001</v>
+      </c>
       <c r="B5" s="8">
-        <v>60500</v>
+        <v>7000</v>
       </c>
       <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="F5" s="7">
-        <v>44585</v>
-      </c>
-      <c r="G5" s="8">
-        <v>17700</v>
-      </c>
+      <c r="D5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8"/>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>26900</v>
+        <v>7000</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>44998</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1168,19 +1171,15 @@
       <c r="B6" s="8"/>
       <c r="C6" s="50"/>
       <c r="D6" s="9"/>
-      <c r="F6" s="7">
-        <v>44956</v>
-      </c>
-      <c r="G6" s="8">
-        <v>8400</v>
-      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8"/>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>26900</v>
+        <v>7000</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44998</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1188,19 +1187,15 @@
       <c r="B7" s="16"/>
       <c r="C7" s="9"/>
       <c r="D7" s="51"/>
-      <c r="F7" s="49">
-        <v>44961</v>
-      </c>
-      <c r="G7" s="16">
-        <v>7500</v>
-      </c>
+      <c r="F7" s="49"/>
+      <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>26900</v>
+        <v>7000</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44998</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1212,11 +1207,11 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>26900</v>
+        <v>7000</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44998</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1228,11 +1223,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>26900</v>
+        <v>7000</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44998</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1244,11 +1239,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>26900</v>
+        <v>7000</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44998</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1260,11 +1255,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>26900</v>
+        <v>7000</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44998</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1276,11 +1271,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>26900</v>
+        <v>7000</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44998</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1292,11 +1287,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>26900</v>
+        <v>7000</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44998</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1308,11 +1303,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>26900</v>
+        <v>7000</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44998</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1324,11 +1319,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>26900</v>
+        <v>7000</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44998</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1340,11 +1335,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>26900</v>
+        <v>7000</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44998</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1356,11 +1351,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>26900</v>
+        <v>7000</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44998</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1372,11 +1367,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>26900</v>
+        <v>7000</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44998</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1388,11 +1383,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>26900</v>
+        <v>7000</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44998</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1404,11 +1399,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>26900</v>
+        <v>7000</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44998</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1420,11 +1415,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>26900</v>
+        <v>7000</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44998</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1436,11 +1431,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>26900</v>
+        <v>7000</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44998</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1452,11 +1447,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>26900</v>
+        <v>7000</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44998</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1468,11 +1463,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>26900</v>
+        <v>7000</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44998</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1484,11 +1479,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>26900</v>
+        <v>7000</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44998</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1500,11 +1495,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>26900</v>
+        <v>7000</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44998</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1516,11 +1511,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>26900</v>
+        <v>7000</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44998</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1532,11 +1527,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>26900</v>
+        <v>7000</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44998</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1548,11 +1543,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>26900</v>
+        <v>7000</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44998</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1564,11 +1559,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>26900</v>
+        <v>7000</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44998</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1580,11 +1575,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>26900</v>
+        <v>7000</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44998</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1596,11 +1591,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>26900</v>
+        <v>7000</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44998</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1612,11 +1607,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>26900</v>
+        <v>7000</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44998</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1629,11 +1624,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>26900</v>
+        <v>7000</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44998</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1654,7 +1649,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>60500</v>
+        <v>7000</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1662,7 +1657,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>33600</v>
+        <v>0</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1685,7 +1680,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>26900</v>
+        <v>7000</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/PP DELHI.xlsx
+++ b/IMPORTANT/PP DELHI.xlsx
@@ -1077,7 +1077,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1155,15 +1155,19 @@
       <c r="D5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="8"/>
+      <c r="F5" s="7">
+        <v>45028</v>
+      </c>
+      <c r="G5" s="8">
+        <v>4900</v>
+      </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>7000</v>
+        <v>2100</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>19</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1175,11 +1179,11 @@
       <c r="G6" s="8"/>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>7000</v>
+        <v>2100</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>45020</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1191,11 +1195,11 @@
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>7000</v>
+        <v>2100</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>45020</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1207,11 +1211,11 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>7000</v>
+        <v>2100</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>45020</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1223,11 +1227,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>7000</v>
+        <v>2100</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>45020</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1239,11 +1243,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>7000</v>
+        <v>2100</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1255,11 +1259,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>7000</v>
+        <v>2100</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1271,11 +1275,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>7000</v>
+        <v>2100</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1287,11 +1291,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>7000</v>
+        <v>2100</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1303,11 +1307,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>7000</v>
+        <v>2100</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1319,11 +1323,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>7000</v>
+        <v>2100</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1335,11 +1339,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>7000</v>
+        <v>2100</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1351,11 +1355,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>7000</v>
+        <v>2100</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1367,11 +1371,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>7000</v>
+        <v>2100</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1383,11 +1387,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>7000</v>
+        <v>2100</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1399,11 +1403,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>7000</v>
+        <v>2100</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1415,11 +1419,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>7000</v>
+        <v>2100</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>45020</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1431,11 +1435,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>7000</v>
+        <v>2100</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1447,11 +1451,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>7000</v>
+        <v>2100</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1463,11 +1467,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>7000</v>
+        <v>2100</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1479,11 +1483,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>7000</v>
+        <v>2100</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1495,11 +1499,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>7000</v>
+        <v>2100</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1511,11 +1515,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>7000</v>
+        <v>2100</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1527,11 +1531,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>7000</v>
+        <v>2100</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1543,11 +1547,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>7000</v>
+        <v>2100</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1559,11 +1563,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>7000</v>
+        <v>2100</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1575,11 +1579,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>7000</v>
+        <v>2100</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1591,11 +1595,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>7000</v>
+        <v>2100</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1607,11 +1611,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>7000</v>
+        <v>2100</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1624,11 +1628,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>7000</v>
+        <v>2100</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>45020</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1657,7 +1661,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>0</v>
+        <v>4900</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1680,7 +1684,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>7000</v>
+        <v>2100</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/PP DELHI.xlsx
+++ b/IMPORTANT/PP DELHI.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>DATE</t>
   </si>
@@ -52,9 +52,6 @@
   </si>
   <si>
     <t>CUSTOMER NAME -PP DELHI</t>
-  </si>
-  <si>
-    <t>TRANSFER</t>
   </si>
 </sst>
 </file>
@@ -1077,7 +1074,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="A5" sqref="A5:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1145,29 +1142,19 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A5" s="7">
-        <v>45001</v>
-      </c>
-      <c r="B5" s="8">
-        <v>7000</v>
-      </c>
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
       <c r="C5" s="9"/>
-      <c r="D5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="7">
-        <v>45028</v>
-      </c>
-      <c r="G5" s="8">
-        <v>4900</v>
-      </c>
+      <c r="D5" s="9"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8"/>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>2100</v>
+        <v>0</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>43</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1179,11 +1166,11 @@
       <c r="G6" s="8"/>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>2100</v>
+        <v>0</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1195,11 +1182,11 @@
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>2100</v>
+        <v>0</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1211,11 +1198,11 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>2100</v>
+        <v>0</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1227,11 +1214,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>2100</v>
+        <v>0</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1243,11 +1230,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>2100</v>
+        <v>0</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1259,11 +1246,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>2100</v>
+        <v>0</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1275,11 +1262,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>2100</v>
+        <v>0</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1291,11 +1278,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>2100</v>
+        <v>0</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1307,11 +1294,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>2100</v>
+        <v>0</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1323,11 +1310,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>2100</v>
+        <v>0</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1339,11 +1326,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>2100</v>
+        <v>0</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1355,11 +1342,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>2100</v>
+        <v>0</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1371,11 +1358,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>2100</v>
+        <v>0</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1387,11 +1374,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>2100</v>
+        <v>0</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1403,11 +1390,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>2100</v>
+        <v>0</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1419,11 +1406,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>2100</v>
+        <v>0</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1435,11 +1422,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>2100</v>
+        <v>0</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1451,11 +1438,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>2100</v>
+        <v>0</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1467,11 +1454,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>2100</v>
+        <v>0</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1483,11 +1470,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>2100</v>
+        <v>0</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1499,11 +1486,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>2100</v>
+        <v>0</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1515,11 +1502,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>2100</v>
+        <v>0</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1531,11 +1518,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>2100</v>
+        <v>0</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1547,11 +1534,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>2100</v>
+        <v>0</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1563,11 +1550,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>2100</v>
+        <v>0</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1579,11 +1566,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>2100</v>
+        <v>0</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1595,11 +1582,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>2100</v>
+        <v>0</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1611,11 +1598,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>2100</v>
+        <v>0</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1628,11 +1615,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>2100</v>
+        <v>0</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1653,7 +1640,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>7000</v>
+        <v>0</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1661,7 +1648,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>4900</v>
+        <v>0</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1684,7 +1671,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>2100</v>
+        <v>0</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>
